--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,246 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Failed to extract ListingInfo. Final error: Error code: 413 - {'error': {'message': 'Request too large for model `qwen-qwq-32b` in organization `org_01jt7nrw8tftbtpz2tmp9d27rg` service tier `on_demand` on tokens per minute (TPM): Limit 6000, Requested 16909, please reduce your message size and try again. Need more tokens? Upgrade to Dev Tier today at https://console.groq.com/settings/billing', 'type': 'tokens', 'code': 'rate_limit_exceeded'}}
-Raw Output:
-&lt;think&gt;
-Okay, let's tackle this problem step by step. The user wants me to extract specific data from the given text and format it into a JSON structure according to their schema. 
-First, I need to understand the input. The text provided seems to be a list of products, each with some details. Each product entry starts with an image (indicated by the ![](...) syntax), followed by "quick view", "Select Options", and then the product name in a header (####). Each product also has "login to view price", but that's not needed for extraction.
-The schema provided requires each product to have four fields: Product Description, Product Link, Brand, and Flavors. The Brand and Flavors are optional, with defaults set to "n/a" and ["n/a"], respectively. The main challenge here is to correctly parse each product's details and map them appropriately.
-Starting with the Product Description. The product names are under the headings (####), so each line starting with #### followed by the product name. For example, the first product is "Lost Angel Mate 50000 Disposable Device 3D Curved Screen Pack of 5". I'll need to extract that as the Product Description.
-Next, the Product Link. The image URLs are in the img tags. The URL is part of the image source attribute. For example, the first image has a URL: "https://d1zsckkge5182f.cloudfront.net/product-images/LA17462101819862025-02-02-18-23-01L5DCy.jfif". I need to extract this URL for each product. However, sometimes there might be an SVG placeholder first, so I have to make sure I pick the correct image link. Looking at each entry, after the SVG (which is data:image/svg+xml,...), there's another image with a proper URL. So the actual product image link is the second one in each entry.
-Then the Brand. The brand is typically the first part of the product name. For instance, "Lost Angel Mate" would be the Brand for the first product. Wait, but actually, looking at the first product name: "Lost Angel Mate 50000 Disposable Device 3D Curved Screen Pack of 5", the brand might be "Lost Angel". Hmm, but the name could be "Lost Angel Mate" as a combined brand. Alternatively, sometimes the brand is the first word(s). For "Beri Crush 50K Disposable Device Pack of 5", the brand is "Beri Crush". So I'll consider the brand as the part before the number and the main product type. For example, "Pillow Talk" in "Pillow Talk Sweet Control 40000 Disposable Device".
-The Flavors field is a list. However, looking at the given text, I don't see any mention of flavors. The problem statement might have a mistake, or the flavors are not present in the provided data. The examples given in the input don't include flavor information. The user's schema requires Flavors as an array, but since the data doesn't have flavor info, I have to set it to ["n/a"] for each product. The user mentioned in the problem statement that if the field isn't present, use the default. So all Flavors will be ["n/a"].
-So, for each product entry, I need to extract the Product Description from the header line (#### followed by the name), extract the Product Link from the image URL (the second image in each block), the Brand as the first part of the product name, and Flavors as ["n/a"].
-Now, I need to parse through each product block. Let's see the structure again:
-Each product block starts with an SVG image (which can be ignored), then another image with the actual URL. The Product Description is the next line starting with ####. So for each block:
-1. Split the text into individual product entries. Since there are multiple entries separated by the image and headers, I need to split the input into sections. Each product's lines would start with the two images, then "quick view", "Select Options", and the #### header with the product name, followed by "login to view price", and possibly other lines.
-Alternatively, looking at the input structure:
-The first lines are:
-![](svg)![image_url]
-quick view
-Select Options
-#### Product Name
-login to view price
-So each product entry is separated by these elements. The Product Name is after the two images. Each product is separated by this structure. 
-So perhaps each product starts with the two image lines, then the text, so I can split the text into chunks where each chunk starts with the SVG image (the first ![](data:image...)), then the actual image with the product image URL, followed by the product name under the ####. 
-So the steps I need to perform are:
-1. Iterate over each product block and extract the image URL after the SVG placeholder.
-2. Extract the product name from the #### line.
-3. Extract the brand from the product name (split on space and take the first part(s), but need to be careful with multi-word brands like "Pillow Talk" or "OFF-STAMP Classic Cube").
-4. Assign the flavor as ["n/a"] since no flavor info is present.
-Wait, for the brand, sometimes the name might be a combination. Let's look at each product:
-First product: Lost Angel Mate 50000 Disposable Device ... → Brand "Lost Angel" or "Lost Angel Mate"? The product name is "Lost Angel Mate 50000...". The brand here might be "Lost Angel Mate". Alternatively, maybe "Lost Angel" is the brand, and "Mate" is part of the product line. Without more context, perhaps the best approach is to take the first part up to the first space before numerical values? Alternatively, the brand might be the first words until the number part starts. Let me check a few examples:
-Looking at "Beri Crush 50K Disposable Device Pack of 5" → Brand is "Beri Crush".
-"Pillow Talk Sweet Control 40000 Disposable Device" → Brand "Pillow Talk".
-"OFF-STAMP Classic Cube Disposable Pods" → Brand "OFF-STAMP".
-"Tyson 2.0 Legend 30000 Disposable Device Pack of 5" → Brand "Tyson 2.0"?
-Hmm, "Tyson 2.0" might be the brand, but maybe "Tyson" is the brand and "2.0 Legend" is part of the product name. This is ambiguous. Since the user hasn't specified how to parse the brand, perhaps the brand is the first word(s) up to the first number, but numbers can be part of the brand name. Alternatively, the brand might be the first part before the main product name. Alternatively, the brand is the first word. For example:
-"Pillow Talk Ice Control IC40000 Crystal Edition" → Brand "Pillow Talk".
-"OFF-STAMP Classic Cube Disposable Pods" → Brand "OFF-STAMP".
-"Fasta Burrst 35000..." → Brand "Fasta".
-So the brand is the first part of the product name, separated by spaces, before the numbers or other descriptors. So splitting the product name on spaces and taking the first component(s) that form the brand. For example, "Lost Angel Mate" is the brand, then "50000..." is the product details. Wait, but "Mate" might be part of the product name, not the brand. Alternatively, "Lost Angel" is the brand, and "Mate" is part of the product. This is ambiguous without more context. Since the problem states that Brand is required, but the user says to use default "n/a" if not present, but in the examples given, maybe the brand is the first part of the product name. Let me proceed with extracting the brand as the first words up to the first number. Wait, maybe the product names have the brand in the beginning. Let me parse each product name:
-- "Lost Angel Mate 50000 Disposable Device 3D Curved Screen Pack of 5" → Brand is "Lost Angel Mate" (assuming that's the brand name), product description includes the rest.
-Wait, perhaps the Brand is the first word or the first couple words.
-Alternatively, perhaps the brand is the first part before the first space followed by a number? Hmm, not sure. Since the problem might expect the brand to be the first part of the product name, I'll parse the Brand as the first part before the first instance of a number, but if there's no number in the initial part, perhaps the entire first part. Alternatively, since some products have "Disposable Device" as part of their name, perhaps the brand is the first word(s) up to "Disposable Device" or similar. But this might be overcomplicating. Maybe the user expects the Brand to be the part before the first space after the main name. Alternatively, perhaps the brand is the first word. Let me look at the examples given in the input:
-Looking at "OFF-STAMP Classic Cube Disposable Pods" → the brand is "OFF-STAMP".
-"Pillow Talk Ice Control IC40000 Crystal Edition" → Brand is "Pillow Talk".
-"Beri Crush 50K..." → "Beri Crush".
-"Tyson 2.0 Legend..." → Maybe "Tyson 2.0" as the full product name, but the brand could be "Tyson".
-"Fasta Burrst 35000..." → Brand is "Fasta".
-"OFF-STAMP Classic Cube..." → "OFF-STAMP".
-So, "Tyson 2.0" might actually be the product line, but the brand might be Tyson. However, without clear indicators, it's safer to take the first part before the first space where numbers start or other descriptors. Alternatively, perhaps the brand is the first word. But in "Pillow Talk Ice Control...", "Pillow Talk" is the brand, so splitting on the first space gives "Pillow Talk".
-Therefore, for each product description:
-- Split the Product Description into parts, and the Brand is the part before the first occurrence of a number (excluding letters). For example, in "Beri Crush 50K...", the number is 50K, so the brand is "Beri Crush". 
-Alternatively, perhaps the brand is the first word(s) before the first numerical value. Let's try this approach.
-Let me process each product:
-1. Product 1: "Lost Angel Mate 50000 Disposable Device 3D Curved Screen Pack of 5"
-   - Product Description: the full name
-   - Brand: "Lost Angel Mate" (since after that comes "50000", which is the nicotine amount perhaps)
-   - Product Link: the image URL from the second image. The first image is the SVG, the second image URL is the product image.
-   The image URL is the link after the first SVG. The second image URL is "https://d1zsckkge5182f.cloudfront.net/product-images/LA17462101819862025-02-02-18-23-01L5DCy.jfif".
-Wait, in the first entry:
-The image URLs are:
-![](data:image/svg+xml,...) → SVG placeholder.
-Then ![Lost Angel Mate...](URL) → the actual image. The URL is part of this. The product name is in the line after that, under a #### heading. 
-So to get the image URL, split the lines and find the second image's URL. Each product block starts with two image lines: the first is the SVG, the second is the product image. The second image's URL is the Product Link. 
-So the steps for each block:
-- The second image URL is the product image link. 
-Now, the Product Link is the URL from the second image in each block. Each product entry has the structure:
-![](svg) ![Product Name](url)
-So the actual product image's URL is in the second image's URL.
-Now, to parse each product's data:
-Looking at the first product:
-The image URLs are the two lines after the initial separator. The second image's alt text is "Lost Angel Mate...", and the URL is the first part of the image link. So the URL is the part between the parentheses. 
-So for each product block, the product link is the second image's URL. 
-Now, the Product Description is the text after the ####, which is the full product name.
-The Brand extraction is the first part of the product name. Let's pick the first part before the first space followed by a number. For example, in the first product's description, "Lost Angel Mate 50000..." the first numbers are "50000", so the brand is everything before that. So:
-"Lost Angel Mate" is part of the product name, but perhaps the brand is "Lost Angel". Wait, but "Mate" might be part of the product line. This is ambiguous. Since the problem might expect the Brand to be the first word or first few words, but without more info, perhaps the Brand is the part before the first occurrence of "Disposable". Alternatively, perhaps the Brand is the first word(s) before the first number. Let me see:
-Looking at "OFF-STAMP Classic Cube Disposable Pods" → Brand is "OFF-STAMP".
-"Pillow Talk Sweet Control 40000..." → Brand "Pillow Talk".
-"Beri Crush 50K..." → "Beri Crush".
-"Tyson 2.0 Legend 30000..." → "Tyson 2.0" as the brand, but perhaps "Tyson" is the main brand.
-Wait, "Tyson 2.0 Legend 30000..." → "Tyson 2.0" could be the model, and "Tyson" is the brand. Alternatively, the brand could be "Tyson".
-Alternatively, perhaps the Brand is the first part before the first space-separated word that is not a brand. Since I can't be certain, but perhaps the user expects the Brand to be the first part before the first number (ignoring non-numeric strings). For example, "OFF-STAMP Classic Cube..." → Brand is "OFF-STAMP".
-So, for each product:
-- Split the product description into parts. The brand is the first part(s) until the first numerical part. Let me try that:
-First product: "Lost Angel Mate 50000 Disposable Device..." → The first numbers are 50000, so brand is "Lost Angel Mate" (since "Mate" comes before the number). Hmm, but "Mate" could be part of the product line. Alternatively, perhaps the brand is "Lost Angel", and "Mate" is part of the product name. This is ambiguous, but given the examples like "OFF-STAMP Classic Cube..." where "OFF-STAMP" is the brand, I think splitting on spaces and taking first part(s) up to where the next word is a number? But in cases like "Tyson 2.0 Legend..." the "2.0" is a version, so the brand is "Tyson 2.0" or just "Tyson".
-Alternatively, since the user has provided an example, perhaps looking at the user's example JSON structure. Wait, the user provided an example of a valid JSON instance, but in the problem's input, there's no flavor info, so flavors are all ["n/a"].
-The main issue is Brand extraction. Since the user hasn't provided any flavor info, and the problem states "extract structured data from the text", and since no flavor info is present, Flavors will remain as ["n/a"] for all.
-So I'll proceed with Brand being the first part of the product name, splitting on spaces and taking the first word(s). Perhaps the first word is the brand, but some have two words like "Pillow Talk". So the entire first segment before the product specifics. For example:
-"Lost Angel Mate 50000..." → Brand is "Lost Angel Mate" (assuming that's the brand name), or "Lost Angel" if "Mate" is part of the product name. This is ambiguous, but perhaps the entire first part before the first number, but in "Lost Angel Mate 50000..." the first number is "50000", so the brand is everything before "50000". But "Mate" is part of the product line. Alternatively, maybe the brand is the first part until the first space where the following word is part of the product. This is unclear. Since the problem might expect the brand to be whatever comes before "Disposable Device" or similar, but perhaps the first part is the brand.
-Alternatively, perhaps the Brand is the first word of the product name. For example:
-"Lost Angel Mate..." → "Lost Angel Mate" as the Brand.
-But sometimes the first word is part of the product name. Alternatively, the brand might be the first word(s) before any numbers. 
-Alternatively, maybe the Brand is the first part before the first occurrence of "Disposable". Let me see:
-Let's take the "Lost Angel Mate 50000 Disposable Device..." → "Lost Angel Mate" is the full name, but perhaps the brand is "Lost Angel", and "Mate" is part of the product line. Alternatively, "Lost Angel Mate" is the brand. 
-Alternatively, perhaps the Brand is the first part before the first number. 
-Alternatively, the product names may have the brand as the first word(s). For example:
-Product Description: "OFF-STAMP Classic Cube Disposable Pods" → Brand is "OFF-STAMP".
-"Pillow Talk Ice Control..." → "Pillow Talk".
-"Beri Crush..." → "Beri Crush".
-"Tyson 2.0..." → "Tyson".
-"Fasta Burrst..." → "Fasta".
-"Orion Bar..." → "Orion".
-Assuming that the first part is the brand, except in cases where the first words form a known brand name. Since there's no further info, I'll assume that the Brand is the first part(s) before the first space-separated word that is not part of the brand. Alternatively, the entire first word(s) up to the first space before a numeric part. Let me consider the first words:
-Take the product name and split into words. The Brand is the first token(s) before a part that's a number. For "Lost Angel Mate 50000..." the first numbers are 50000, so Brand is everything before that. So "Lost Angel Mate".
-"Beri Crush 50K..." → "Beri Crush".
-"Tyson 2.0 Legend 30000..." → first number is "30000", so Brand is "Tyson 2.0 Legend"? Or just "Tyson".
-Hmm, this is tricky. Given that in the example given, if the user's example isn't provided, but in the problem, since the user might expect the Brand to be the first part before the number. Let's proceed as follows:
-The brand is the part of the product name before the first occurrence of a numerical value. For example:
-- "Lost Angel Mate 50000..." → "50000" is the first number. So Brand is "Lost Angel Mate".
-- "Beri Crush 50K..." → "50K" has a number, so Brand is "Beri Crush".
-- "Pillow Talk Sweet Control 40000..." → "40000" is the first number. So Brand is "Pillow Talk Sweet Control"? Or "Pillow Talk".
-Wait, in "Pillow Talk Sweet Control 40000...", the first number is "40000" → so the brand would be "Pillow Talk Sweet Control"? That may not make sense, so maybe the first two words? Alternatively, the first word: "Pillow Talk".
-Hmm, perhaps the Brand is the first part before the first " Disposable Device" or similar terms. Alternatively, the Brand is the first part until " Disposable".
-But maybe the Brand is the first words before the first number. Let's try:
-For "Pillow Talk Ice Control IC40000..." → the first number is "IC40000". The brand would be up to "Ice Control" or "Pillow Talk".
-Alternatively, the Brand is the company name, which might be the first part. Since "Pillow Talk" is a common brand name, that's likely the Brand. Similarly "OFF-STAMP" in "OFF-STAMP Classic Cube..." → "OFF-STAMP".
-Therefore, the Brand is the first part of the Product Description separated by spaces, but sometimes it's two words like "Pillow Talk", "Beri Crush".
-Therefore, to extract the Brand, split the product name into parts, and the Brand is the first part before any numbers. Alternatively, perhaps the first word is the Brand, but for multi-word brands, like "Pillow Talk".
-Alternatively, the Brand is the first word(s) that are not numbers. But perhaps the Brand is the first part before any numbers or "Disposable" keyword.
-Alternatively, the Brand is the part before the first occurrence of " Disposable Device", but that may vary.
-Alternatively, since the user hasn't provided any flavor info, and the Brand isn't explicitly given, perhaps the product name is the entire description, and the Brand is part of it. Since the problem requires Brand, but if I can't determine it, set it as the first word or first two words. Let me proceed by taking the first part of the product name as the Brand, using the first words that form a recognizable brand name.
-Alternatively, perhaps the Brand is the first word(s) before the first occurrence of a number. 
-Taking the first product's product description:
-"Lost Angel Mate 50000 Disposable Device 3D Curved Screen Pack of 5"
-Split into words. The first number is "50000", so the brand is everything before "50000": "Lost Angel Mate".
-Similarly, "Beri Crush 50K..." → "Beri Crush".
-"Pillow Talk Ice Control IC40000..." → "Pillow Talk Ice Control"? Or "Pillow Talk".
-Hmm. Alternatively, the Brand is the first non-number part. Maybe the first words until the first occurrence of a number. Let's see:
-Split the Product Description into tokens, iterate until a numeric component is found, then take everything up to there as the Brand.
-For "Lost Angel Mate 50000..." → The first token with a number is "50000". So the Brand would be "Lost Angel Mate".
-"Beri Crush 50K..." → "50K" has a number, so Brand is "Beri Crush".
-"Pillow Talk Ice Control IC40000..." → The first numeric part is "IC40000", so the Brand would be "Pillow Talk Ice Control"?
-Alternatively, the "IC40000" is part of the model, so the Brand is "Pillow Talk".
-Hmm, this is getting complicated. Since the problem requires Brand, but without explicit data, perhaps the user expects the Brand to be the first part before the first space after the first words. Alternatively, perhaps the Brand is the first part before the first space followed by a number. Alternatively, the user might consider the entire product name as the Brand. But maybe the Brand is the first word. But that might not work for "Pillow Talk Ice Control".
-Alternatively, if I look for common brand names in the product names, for example:
-- "Tyson 2.0 Legend..." → "Tyson 2.0" as Brand?
-Alternatively, given the ambiguity, perhaps the Brand is the first word(s) until the first space before a numeric term. Let me consider the first product:
-Product Description: "Lost Angel Mate 50000 Disposable..."
-Split the words: ["Lost", "Angel", "Mate", "50000", ...]
-The first number is "50000", so the Brand is "Lost Angel Mate".
-Similarly, "Beri Crush 50K..." → "Beri Crush".
-"Pillow Talk Ice Control IC40000..." → "Pillow Talk Ice Control" ?
-Alternatively, "Pillow Talk" is the brand, and the rest is the model.
-This is a problem, but without more info, perhaps the user expects the Brand to be the part before the first occurrence of " Disposable Device" or similar, but it's unclear. Since the user hasn't provided flavor info, but the Brand is required, I'll proceed by taking the first part before the first number as the Brand. So:
-For "OFF-STAMP Classic Cube..." → "OFF-STAMP Classic Cube"? Or "OFF-STAMP".
-Wait, the product description is "OFF-STAMP Classic Cube Disposable Pods". The first part is "OFF-STAMP", so that's the Brand.
-Yes, in that case "OFF-STAMP" is the Brand.
-"Pillow Talk Sweet Control..." → Brand is "Pillow Talk".
-"Tyson 2.0 Legend..." → "Tyson 2.0"?
-But perhaps "Tyson" is the brand, and "2.0" is a model. Since "Tyson" is a known brand name (like a company), maybe Tyson is the brand). So "Tyson" as the Brand.
-Alternatively, the user might have intended the Brand to be the part before the first part containing a number. For example, in "Tyson 2.0 Legend 30000...", the first numeric part is "2.0" (but that's a version), then "30000". So the Brand could be "Tyson 2.0".
-Alternatively, perhaps the Brand is the first part before the first occurrence of a numeric value. Let's proceed with that approach.
-Let me try to code this:
-For each product name:
-Split into words, iterate until a word that contains a number. Take the substring up to that point as the brand.
-For example:
-Product: "Lost Angel Mate 50000..." → words are ["Lost", "Angel", "Mate", "50000", ...]. The first word with a number is "50000", so the brand is "Lost Angel Mate".
-"Beri Crush 50K..." → "Beri Crush".
-"Pillow Talk Sweet Control IC40000..." → the first numeric is "IC40000" (but "IC40000" has a number, so the Brand would be "Pillow Talk Sweet Control"?
-Alternatively, "IC40000" contains a number but starts with a letter. Maybe the first occurrence of a standalone number. Alternatively, maybe the first word is the brand. 
-Alternatively, perhaps the Brand is the first word until the first occurrence of " Disposable Device" or " Disposable Kit" etc. For example:
-"Lost Angel Mate 50000 Disposable Device..." → "Lost Angel Mate" is the Brand, since "Disposable Device" is the product type.
-So the Brand is "Lost Angel Mate".
-"Beri Crush 50K Disposable Device Pack of 5" → "Beri Crush".
-"Pillow Talk Sweet Control 40000 Disposable Device" → "Pillow Talk Sweet Control" or "Pillow Talk".
-Looking at "OFF-STAMP Classic Cube Disposable Pods" → "OFF-STAMP" is the brand, "Classic Cube" is model.
-"Pillow Talk Ice Control IC40000 Crystal Edition" → "Pillow Talk".
-"Tyson 2.0 Legend 30000..." → "Tyson 2.0" (since "2.0" is a version).
-"OFF-STAMP Classic Cube..." → "OFF-STAMP".
-"Fasta Burrst 35000..." → "Fasta".
-"Orion Bar 50000..." → "Orion".
-"OFF-STAMP X-CUBE 25000..." → "OFF-STAMP".
-Therefore, the Brand extraction can be done by splitting the product name and taking everything before the first occurrence of a number that is part of the product specs (like 50000, 25000, etc). But since the numbers vary, perhaps the first occurrence of a number with a high value (like 50000 is part of the product's nicotine count? Maybe the number is part of the product's specs (e.g., 50000 mg, etc.), so the Brand is everything before that number.
-So, for each product description:
-Split into words, iterate until a word that contains a number. The Brand is the string up to that word.
-Let me try this approach:
-For "Lost Angel Mate 50000...": words up to "50000".
-The first occurrence of a numeric word is "50000", so the Brand is "Lost Angel Mate".
-"Beri Crush 50K..." → "50K", so Brand "Beri Crush".
-"Pillow Talk Sweet Control 40000..." → "40000" → Brand "Pillow Talk Sweet Control".
-But "Sweet Control" might be part of the product line. Alternatively, perhaps "Pillow Talk" is the brand, and the rest is product details. This is tricky. Maybe the user expects the Brand to be the first part before the first space-separated term that contains a number. Let's proceed with that approach.
-Alternatively, since the user might have intended the Brand as the first word or first few words. Let me proceed with splitting the product name into parts and take the first part as the Brand. For example:
-Product Name: "OFF-STAMP Classic Cube Disposable Pods" → "OFF-STAMP" is the brand.
-"Pillow Talk Ice Control..." → "Pillow Talk".
-"Tyson 2.0 Legend..." → "Tyson".
-"Fasta Burrst 35000..." → "Fasta".
-"Orion Bar 50000..." → "Orion".
-"OFF-STAMP X-CUBE 25000..." → "OFF-STAMP X-CUBE"?
-Wait, in "OFF-STAMP X-CUBE 25000...", the "25000" is part of the product, so the Brand is "OFF-STAMP X-CUBE" (since "X-CUBE" is part of the product name and not the brand. Hmm. Alternatively, "OFF-STAMP" is the brand.
-Perhaps the Brand is the first word(s) that form a known brand name. If I can't be sure, perhaps just take the first word. But "Pillow Talk" is two words. So perhaps split on spaces and the brand is the first word or first few words that form a known brand name. 
-Alternatively, for the purposes of this exercise, since the user hasn't provided explicit Brands, and given that the Brands are likely the first part before the first space followed by a number or "Disposable".
-Alternatively, perhaps the Brand is the first word. But "Classic Cube" in "OFF-STAMP Classic..." would make the Brand "OFF-STAMP".
-Looking at the first example:
-"Lost Angel Mate 50000..." → Brand: "Lost Angel" or "Lost Angel Mate".
-Hmm. Since the user might have intended the Brand as the first part before any numbers.
-Alternatively, the Brand is the first part before "Disposable Device".
-Looking at the first product name: "Lost Angel Mate 50000 Disposable Device...", so before "Disposable Device", the Brand is "Lost Angel Mate".
-But "Disposable Device" is the product type. So the Brand is everything up to "Disposable Device" → "Lost Angel Mate".
-Another example: "Beri Crush 50K Disposable Device..." → Brand "Beri Crush".
-"Pillow Talk Sweet Control 40000 Disposable Device" → Brand is "Pillow Talk Sweet Control" (but that might be the model). Hmm.
-Alternatively, the Brand is the first part up to the first occurrence of "Disposable" → so "Pillow Talk Sweet Control" is the model, but the Brand is "Pillow Talk".
-This is getting too ambiguous. Given time constraints, perhaps proceed with the first part before the first number. Let me proceed with that approach:
-For each product description, split into parts, iterate until a word containing a number (excluding letters). Like "50000" is a number, "IC40000" has numbers but starts with letters, so maybe check for words with numbers:
-So, for each word in the product name, check if any character is a number. The first word with a numeric part. Take everything before that as the brand.
-For example:
-Product Description: "Lost Angel Mate 50000..." → the 3rd word is "Mate", not a number, 4th word "50000" → so the brand is the first 3 words: "Lost Angel Mate".
-"Beri Crush 50K..." → first word with number is "50K" → "Beri Crush".
-"Pillow Talk Sweet Control IC40000..." → "IC40000" has a number. So the Brand is "Pillow Talk Sweet Control".
-"Tyson 2.0 Legend 30000..." → first numeric part is "2.0" (has a number), but maybe considered part of the model. Alternatively, the first number is "30000". So the Brand is "Tyson 2.0 Legend".
-Hmm, this is getting too time-consuming. Since the user hasn't provided flavors, and the Brand is required, but the problem might expect the Brand to be the first part before the first number in the product name.
-Alternatively, perhaps the Brand is the first token before the first numeric value (e.g. "Lost Angel Mate" is the full product name, but perhaps the actual Brand is "Lost Angel" with "Mate" as a variant. Without more info, I'll proceed with taking the first part before the first numeric term, but maybe it's better to take the first part up to where the first number appears.
-Alternatively, perhaps the Brand is the first word. But that might fail when the brand is two words like "Pillow Talk".
-Alternatively, perhaps the Brand is the first word or first two words.
-Alternatively, since the problem might expect the Brand to be the first part before any numeric count (like 50000), 30000, etc. So the first part until the first occurrence of a number. Let me try this approach:
-For each product's Product Description:
-Split into words:
-Take all words until the first word that contains a numeric character (excluding letters). So "50000" has only numbers, "50K" has numbers, "IC40000" has numbers with letters, but since it contains a number, it's a numeric term.
-So for "Pillow Talk Ice Control IC40000...", the first numeric part is "IC40000", so the Brand is "Pillow Talk Ice Control".
-But "IC40000" might be part of the model.
-Alternatively, the first numeric term (including letters) that is the start of the product specs.
-Alternatively, perhaps the Brand is the first word(s) before "Disposable", because "Disposable Device" is a common term, so Brand is everything before "Disposable".
-Looking at "Lost Angel Mate 50000 Disposable Device..." → the Brand is "Lost Angel Mate 50000"? No, that includes numbers.
-Wait, the product name is the full name, and the Brand is typically the company's name. Assuming that the Brand is the first part that's the company's name. For example, "OFF-STAMP Classic Cube..." → "OFF-STAMP".
-"Pillow Talk..." → Pillow Talk.
-"Beri Crush" → Beri Crush.
-"Lost Angel Mate" → the company name could be "Lost Angel".
-Wait, maybe "Mate" is part of the product line. So the Brand is "Lost Angel".
-But this requires more knowledge than I have. Given the ambiguity, I'll proceed by taking the first part before the first number (ignoring letters attached to numbers).
-Alternatively, perhaps the Brand is the first word. Let me proceed with that approach for the purposes of this exercise, but it might not be perfect but the best I can do.
-Alternatively, perhaps the Brand is the first part before any numbers. Let's see for each product:
-Product 1: "Lost Angel Mate 50000..." → first number is "50000". So Brand is "Lost Angel Mate".
-Product 2: "Beri Crush 50K..." → "50K" → "Beri Crush".
-Product 3: "Pillow Talk Sweet Control 40000..." → "40000" → Brand is "Pillow Talk Sweet Control".
-"Pillow Talk Ice Control IC40000..." → "IC40000" contains numbers → "Pillow Talk Ice Control".
-"Tyson 2.0 Legend 30000..." → "2.0" contains a number, but "Tyson" is the brand, and "2.0" is the model. So Brand is "Tyson".
-This is ambiguous. Since the user hasn't provided explicit Brand info, and given the problem's constraints, perhaps the Brand is the first word(s) up to where a numeric value is mentioned. Alternatively, perhaps the Brand is the first part before the first numeric value (like 50000, 30000 etc. as they might represent the nicotine content. So the Brand is everything before that:
-For the first product: "Lost Angel Mate" (up to before "50000").
-Second product: "Beri Crush".
-Third product: "Pillow Talk Sweet Control".
-Fourth product: "Pillow Talk Ice Control".
-Fifth product: "Tyson 2.0 Legend" (but the number th</t>
+          <t>'product_description'</t>
         </is>
       </c>
     </row>
@@ -735,6 +496,23 @@
         </is>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>'product_description'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.mkdistro.com/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>'product_description'</t>
         </is>
